--- a/files/morningstar/MorningStar.xlsx
+++ b/files/morningstar/MorningStar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F427"/>
+  <dimension ref="A1:F590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -9645,7 +9645,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -11409,7 +11409,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -11773,7 +11773,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -12165,7 +12165,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -12725,7 +12725,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -12865,7 +12865,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>渣打</t>
+          <t>汇丰+渣打</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -13248,6 +13248,4570 @@
         </is>
       </c>
       <c r="F427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>LU0254981946</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - BRIC Markets Equity AC</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>F0GBR06WNM</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>LU0261950470</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Fidelity Funds - Emerging Markets Fund A-Acc-USD</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>FOGBR05KLN</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>LU0106235293</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund EURO Equity A Accumulation EUR</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>F0GBR04AFY</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>LU0323240290</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Global Equity Climate Change AD</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>F000000OCF</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>IE0004852103</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Barings International Umbrella Fund - Barings Eastern Europe Fund Class A EUR Inc</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>F0GBR04SJK</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>LU0072463663</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Latin American Fund A2</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>F0GBR04AMP</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>LU1775955864</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Invesco Funds - Invesco Emerging Markets Bond Fund A Semi-annual Distribution USD</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>F000010OV9</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>LU0170475312</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Templeton Global Total Return Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>F0GBR04HRT</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>LU0524291456</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Global High Income Bond AM2</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>F00000J42D</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>LU0367026134</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Invesco Funds - Invesco Asia Asset Allocation Fund A Quarterly Distribution USD</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>F0HKG05BY4</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>LU0385154629</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Nutrition Fund A2 USD</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>F00000GUW7</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>LU0300736062</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Franklin Natural Resources Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>F000000GKS</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>LU0516397667</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Allianz Global Investors Fund - Allianz US High Yield AM USD</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>F00000JNI0</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>LU0243957312</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Invesco Funds - Invesco Pan European High Income Fund A Quarterly Distribution EUR</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>F0GBR06T9N</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>IE0000830236</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Barings International Umbrella Fund - Barings ASEAN Frontiers Fund Class A USD Inc</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>F0GBR04SEX</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>HK0000349529</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>HSBC Investment Funds Trust - HSBC Asian Bond Fund AM2 USD</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>F00000ZCML</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>HK0000349578</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>HSBC Investment Funds Trust - HSBC Asian High Yield Bond Fund AM2 USD</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>F00000ZCMW</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>LU0630378429</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Asia Pacific ex Japan Equity High Dividend AM2</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>F00000ML67</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>LU0256839274</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Allianz Global Investors Fund - Allianz Europe Equity Growth AT EUR</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>F0000000K4</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>LU0356780857</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>JPMorgan Investment Funds - Global High Yield Bond Fund A (mth) - USD</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>F0000024ST</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>HK0000084514</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>JPMorgan Multi Income (mth) - USD</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>F00000MU6A</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>LU0119066131</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>JPMorgan Funds - US Value Fund A (dist) - USD</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>F0GBR04BY1</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>LU0011846440</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - European Fund A2</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>F0GBR04APF</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>LU0082770016</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Asia ex Japan Equity Smaller Companies AD</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>F0GBR04EP4</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>LU0165074740</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Euroland Value AD</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>F0GBR053N5</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>LU1066051498</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Global Equity Volatility Focused Fund AM2</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>F00000TNEB</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>LU0738911758</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Global Equity Income Fund A6 USD</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>F00000NOY1</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>HK0000055555</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>JPMorgan ASEAN Fund - JPMorgan ASEAN (acc) – USD</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>F0GBR054N2</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>LU0971552913</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Allianz Global Investors Fund - Allianz European Equity Dividend AM EUR</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>F00000QJCQ</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>HK0000235421</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>HSBC Collective Inv Trust - HSBC Asia Pacific ex Japan Equity Volatility Focused Fund AM2 - USD</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>F00000VBHN</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>LU0297942194</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Global Corporate Bond Fund A2 USD</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>F000000KR4</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>LU0053696224</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>JPMorgan Funds - Japan Equity Fund A (dist) - USD</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>F0GBR04SN9</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>LU0265550359</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Systematic Global Equity High Income Fund A2 USD</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>F0000000P6</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>HK0000284874</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>HSBC Collective Inv Trust - HSBC Euro Multi-Asset Income Fund AM2-EUR</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>F00000WWD5</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>LU1223082196</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Gold A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>F00000XAFD</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>LU0184696937</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Sustainable World Bond Fund A2 USD</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>F0GBR05ZF0</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>LU0651946864</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Emerging Markets Equity Income Fund A2</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>F00000MU9O</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>LU0095938881</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>JPMorgan Investment Funds - Global Macro Opportunities Fund A (acc) - EUR</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>F0GBR04DM7</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>LU0053903380</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Corporate Bond A Distribution USD MV</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>F0GBR04AIE</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>LU0114722498</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Fidelity Funds - Global Financial Services Fund A-DIST-EUR</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>F0GBR04UJ5</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>LU0048580855</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Fidelity Funds - Greater China Fund A-DIST-USD</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>F0GBR04D0Z</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>LU1711226354</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Global Emerging Markets Multi-Asset Income AM2</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>F00000ZWBH</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>LU1674673691</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Global Lower Carbon Equity AD</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>F00000ZI14</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>LU0075112721</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Invesco Funds - Invesco Asia Opportunities Equity Fund A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>F0GBR04AD0</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>LU1728044204</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Global Investment Grade Securitised Credit Bond AM2</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>F00000ZUEM</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>LU0210535976</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>JPMorgan Funds - US Small Cap Growth Fund A (acc) - USD</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>F0GBR05VVZ</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>LU0725887540</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>BlackRock Strategic Funds - Systematic US Equity Absolute Return Fund A2 USD</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>F00000NR6A</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>LU1066047207</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>HSBC Portfolios - World Selection 1 AM</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>F00000TQKZ</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>LU1066048197</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>HSBC Portfolios - World Selection 2 AM</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>F00000TUV1</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>LU1066048866</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>HSBC Portfolios - World Selection 3 AM</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>F00000TPRZ</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>LU1066049674</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>HSBC Portfolios - World Selection 4 AM</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>F00000TUV8</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>LU1066050250</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>HSBC Portfolios - World Selection 5 AM</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>F00000TQL4</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>LU0029872446</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Franklin U.S. Government Fund A(Mdis)USD</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>F0GBR04ARP</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>LU1371569200</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Fidelity Funds - Asian Bond Fund A-MINCOME(G)-USD</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>F00000WYQU</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>LU1931956285</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>BNP Paribas Flexi I Commodities Classic USD Capitalisation</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>F000014516</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>LU1709305095</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Global Lower Carbon Bond AM2</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>F00000ZPCR</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>IE00BD4GTV84</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>FTGF ClearBridge Infrastructure Value Fund Class A USD Accumulating (Hedged)</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>F00000YPZD</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>LU0861579265</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>AB SICAV I - Low Volatility Equity Portfolio A USD Acc</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>F00000PA64</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>LU2014293232</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Invesco Funds - Invesco Emerging Markets Local Debt Fund A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>F0000140EZ</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>LU0224508324</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Cities A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>F0GBR064S9</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>LU0562246297</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>JPM Emerging Markets Investment Grade Bond A (acc) - EUR (hedged)</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>F00000LKVV</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>LU0261947682</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Fidelity Funds - US Dollar Bond Fund A-Acc-USD</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>FOGBR05KMA</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>HK0000656972</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>HSBC Collective Investment Trust - HSBC Evolving Asia Equity Fund AC USD</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>F000015TMM</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>LU2050612402</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>JPMorgan Funds - Thematics - Genetic Therapies A (acc) - USD</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>F000014DDL</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>LU0069063385</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>AB SICAV I-Sustainable Global Thematic Portfolio A</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>F0GBR04I90</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>LU2324357040</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>HSBC GLOBAL INVESTMENT FUNDS - GLOBAL EQUITY SUSTAINABLE HEALTHCARE AC</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>F000016XJX</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>LU0503631714</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Pictet - Global Environmental Opportunities P EUR</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>F00000JQ83</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>LU0217139020</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Pictet-Premium Brands P EUR</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>F0GBR06F7W</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>LU1917777945</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Allianz Global Investors Fund - Allianz Thematica AT USD</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>F000011VT7</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>LU2041044095</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Circular Economy Fund A2</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>F000014BDQ</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>HK0000760253</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Schroder Stable Growth Fund A HKD Accumulation</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>F00001CKUI</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>LU1596574779</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>BNP Paribas Funds Aqua Classic RH USD Capitalisation</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>F00000YX2A</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>LU1039395188</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>BNP Paribas Funds Green Tigers Classic Capitalisation</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>F00000UBGN</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>LU0537373747</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>JPMorgan Funds - Global Corporate Bond Fund A (mth) - USD</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>F00000JQPU</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>LU2449327464</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>HSBC Global Investment Funds - Global Infrastructure Equity AC</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>F00001DH4Z</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>LU2380233275</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Sustainable Food and Water A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>F00001CKZY</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>LU1295551573</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Capital Group New Perspective Fund (LUX) B</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>F00000WDS1</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>LU1968741519</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Capital Group Capital Income Builder (LUX) Bfdm</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>F000013JNV</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>LU2242646235</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Fidelity Funds - Sustainable Global Dividend Plus Fund A-Acc-USD</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>F0000176Y4</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>LU1983299162</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Energy Transition A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>F000013V4B</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>LU0261945553</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Fidelity Funds - ASEAN Fund A-Acc-USD</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>FOGBR05KLK</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>LU2621530885</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Capital Group Global Corporate Bond Fund (LUX) Bfdm</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>F00001G18D</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>LU0093503497</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - ESG Multi-Asset Fund A2 EUR</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>F0GBR04T2X</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>LU0124676726</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>AB SICAV I - Sustainable US Thematic Portfolio Class A USD</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>F0GBR04UHL</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>IE00B11XYX59</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>PIMCO GIS Emerging Markets Bond Fund E Class USD Accumulation</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>F0GBR06T5G</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>LU0063729296</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Asian Tiger Bond Fund A2 USD</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>F0GBR04SSN</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>LU0231203729</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Franklin India Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>F0GBR06IG5</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>IE00B19Z4J92</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>FTGF Brandywine Global Fixed Income Fund Class A US$ Accumulating</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>F000000F5V</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>LU0048816135</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Invesco Funds - Invesco Greater China Equity Fund A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>F0GBR04AC5</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>IE0009355771</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Janus Henderson Capital Funds plc - Global Life Sciences Fund Class A2 USD</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>F0GBR04SJR</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>LU0572952280</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Janus Henderson Horizon Global Technology Leaders Fund A2 EUR</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>F00000NAG9</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>LU0209137388</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Janus Henderson Horizon Global Property Equities Fund A2 USD</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>F0GBR05V8L</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>LU0987226296</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>JPM Europe Dynamic A (acc) - USD (hedged)</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>F00000RHNH</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>LU1034075835</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>JPM Europe Dynamic Technologies A (acc) - USD (hedged)</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>F00000SVXB</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>IE00B11XZ210</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>PIMCO GIS Global Bond Fund E Class USD Accumulation</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>F0GBR06T5V</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>IE00B11XZ988</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>PIMCO GIS Total Return Bond Fund E Class USD Accumulation</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>F0GBR06T6W</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>IE00B1D7YK27</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>PIMCO GIS Diversified Income Fund E Class USD Accumulation</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>FOGBR05KHT</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>IE00B3K7XK29</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>PIMCO GIS Global Investment Grade Credit Fund E Class USD Accumulation</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>F000002JY0</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>LU0106239873</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Japanese Equity A Accumulation JPY</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>F0GBR04ADA</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>LU0106242315</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Japanese Smaller Companies A Accumulation JPY</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>F0GBR04SQN</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>LU0161305163</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund European Value A Accumulation EUR</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>F0GBR04HGZ</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>LU0188096647</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Inflation Linked Bond A Accumulation USD Hedged</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>F0GBR0540B</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>LU0205193047</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund US Small &amp; Mid-Cap Equity A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>F0GBR05TRH</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>LU0269904917</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Emerging Market Opportunities A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>F0000002PO</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>IE00B19Z9Z06</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>FTGF ClearBridge US Aggressive Growth Fund Class A USD Accumulating</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>F000000F65</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>LU0306807586</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Dividend Maximiser A Distribution USD QF</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>F000000GXT</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>LU0745992734</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Allianz Global Investors Fund - Allianz Flexi Asia Bond AM USD</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>F00000OJAB</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>LU0348735423</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Allianz Global Investors Fund - Allianz Hong Kong Equity A USD</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>F000000F7U</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>LU0348744763</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Allianz Global Investors Fund - Allianz Asia Pacific Income A USD</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>F000000F7T</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>LU0348767384</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Allianz Global Investors Fund - Allianz Little Dragons AT USD</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>FOGBR05M1W</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>GB00B3NSX137</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Barings Europe Select Trust - Class A EUR Acc</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>F000005ETU</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>IE0009HL3FB0</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Barings Global Opportunities Umbrella Fund - Barings Global Balanced Fund Class A USD Acc</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>F00001CLRO</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>LU0280430660</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Pictet-Clean Energy Transition P USD</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>F000000AVS</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>LU0090689299</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Pictet-Biotech P USD</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>F0GBR04JNP</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>LU0255978776</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Pictet-Health P EUR</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>F0000002FS</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>LU0006061419</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - US Dollar Reserve Fund A2 USD</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>F0GBR04ASX</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>LU0072462343</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Asian Dragon Fund A2</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>F0GBR04AMA</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>LU0248272758</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - India Fund A2</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>F0GBR05ZRD</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>LU0329678337</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Fidelity Funds - Emerging Asia Fund A-Acc-USD</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>F000000R1E</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>LU0261946288</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Fidelity Funds - Global Bond Fund A-Acc-USD</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>FOGBR05KLY</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>LU0128526901</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Franklin U.S. Dollar Short-Term Money Market Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>F0GBR04TWX</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>LU0300738514</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Templeton Emerging Markets Smaller Companies Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>F000000J60</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>LU0496367417</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Franklin Gold &amp; Precious Metals Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>F00000HGSN</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>IE00B19Z3581</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>FTGF ClearBridge US Value Fund Class A US$ Accumulating</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>F000000C2N</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>IE00B19Z6R17</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>FTGF Western Asset US Government Liquidity Fund Class A US$ Accumulating</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>F000000ASQ</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>IE00B1BXHP82</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>FTGF Western Asset Global High Yield Fund Class A US$ Accumulating</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>F000000F84</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>LU0070302665</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Franklin Mutual U.S. Value Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>F0GBR04ARD</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>LU0078277505</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Templeton Eastern Europe Fund A(acc)EUR</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>F0GBR04ARK</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>LU0128522744</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Templeton Emerging Markets Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>F0GBR04ARG</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>LU0128526570</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Templeton Latin America Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>F0GBR04ARL</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>LU0138075311</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Templeton European Small-Mid Cap Fund A(acc)EUR</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>F0GBR04IEZ</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>LU0140363002</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Franklin Mutual European Fund A(acc)EUR</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>F0GBR04IMW</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>LU0211326755</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Templeton Global Income Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>F0GBR05XB7</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>LU0211331839</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Franklin Mutual Global Discovery Fund A(acc)USD</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>F0GBR06IGG</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>LU0229946628</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Templeton BRIC Fund A(acc)EUR</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>F0GBR06IHY</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>LU0334858593</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Invesco Funds - Invesco Pan European Equity Fund A Annual Distribution USD</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>F000001W4W</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>LU0229494975</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Janus Henderson Horizon Asia-Pacific Property Income Fund A2 USD</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>F0GBR0635E</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>LU0264605907</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Janus Henderson Horizon Asian Dividend Income Fund A3q USD</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>F0000000XJ</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>LU0957039414</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>JPM Global Balanced A (acc) - USD (hedged)</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>F00000QTPE</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>LU0106235533</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund EURO Bond A Accumulation EUR</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>F0GBR04AFM</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>LU0106256372</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Bond A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>F0GBR04AHM</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>LU0106259046</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Latin American A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>F0GBR04AEA</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>LU0106817157</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Emerging Europe A Accumulation EUR</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>F0GBR04AG4</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>LU0149525270</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Hong Kong Dollar Bond A Accumulation HKD</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>F0GBR05AA0</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>LU0225284248</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Equity Yield A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>F0GBR061M6</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>LU0256331488</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Energy A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>F0GBR06U6U</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>LU0358858032</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Asian Bond Total Return A Accumulation SGD Hedged</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>F000001WDN</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>LU0562313402</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Frontier Markets Equity A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>F00000LNS6</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>LU1046234339</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund European Dividend Maximiser A Distribution USD Hedged MF</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>F00000T5M1</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>LU1195516338</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Multi-Asset Growth and Income A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>F00000VH29</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>LU2049422426</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Pictet - Emerging Debt Blend - P USD</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>F0000143A0</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>LU0776412461</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Global Diversified Growth A Accumulation USD Hedged</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>F00000OIPP</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>LU1005243255</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Fixed Income Global Opportunities Fund A2 EUR</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>0P00011M1O</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>LU1934327195</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Invesco Funds - Invesco Japanese Equity Advantage Fund A Accumulation USD Hedged</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>F000011VMM</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>LU1350352206</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Franklin NextStep Moderate Fund A(Acc)USD</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>F00000WWTA</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>LU0270814014</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Schroder International Selection Fund Taiwanese Equity A Accumulation USD</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>F000000OYA</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>LU0345780281</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Ninety One Global Strategy Fund - Global Gold Fund A Acc USD</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>F000000LJH</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>LU0117841782</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>JPMorgan Funds - Greater China Fund A (dist) - USD</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>F0GBR04M17</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>LU0862451837</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>JPMorgan Funds - Emerging Markets Dividend Fund A (mth) - USD</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>F00000PJMK</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>LU0101692670</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Pictet-Digital PUSD</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>F0GBR04BCH</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>LU0256846139</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Pictet-Security P USD</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>F000000115</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>LU0842063009</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - World Real Estate Securities Fund A2 USD</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>F00000PLSP</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>LU1861215975</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>汇丰</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>BlackRock Global Funds - Next Generation Technology Fund A2</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>F000011366</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
